--- a/posesiones/1469944.xlsx
+++ b/posesiones/1469944.xlsx
@@ -1874,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>19</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2403,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14">
         <v>18</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>21</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19">
         <v>16</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R21">
         <v>10</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R23">
         <v>3</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R25">
         <v>4</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>30</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R32">
         <v>26</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R34">
         <v>8</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3509,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R36">
         <v>4</v>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R37">
         <v>12</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R41">
         <v>12</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3859,7 +3859,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R43">
         <v>16</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R45">
         <v>15</v>
@@ -4012,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R47">
         <v>5</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R49">
         <v>5</v>
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50">
         <v>17</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R52">
         <v>9</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4421,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R54">
         <v>8</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R56">
         <v>24</v>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R58">
         <v>14</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4915,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R64">
         <v>17</v>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67">
         <v>13</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R72">
         <v>24</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R76">
         <v>19</v>
@@ -5556,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R77">
         <v>10</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R79">
         <v>27</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5759,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R81">
         <v>11</v>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5903,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5953,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6056,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R87">
         <v>19</v>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6256,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R91">
         <v>21</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6356,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R93">
         <v>15</v>
@@ -6406,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R95">
         <v>11</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6847,7 +6847,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R103">
         <v>11</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R112">
         <v>27</v>
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R113">
         <v>13</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7432,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R115">
         <v>12</v>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7535,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R117">
         <v>12</v>
@@ -7585,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7732,7 +7732,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R121">
         <v>17</v>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R124">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8026,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R127">
         <v>15</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8126,7 +8126,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R129">
         <v>7</v>
@@ -8170,10 +8170,10 @@
         <v>1</v>
       </c>
       <c r="P130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8496,10 +8496,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R138">
         <v>11</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8649,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R140">
         <v>25</v>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R141">
         <v>19</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8799,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8896,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R145">
         <v>20</v>
@@ -8949,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8999,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R147">
         <v>12</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9146,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R150">
         <v>12</v>
@@ -9199,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R151">
         <v>9</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9299,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R153">
         <v>8</v>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R155">
         <v>20</v>
@@ -9452,7 +9452,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R156">
         <v>11</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9549,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9690,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9784,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9881,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R165">
         <v>24</v>
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9984,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R167">
         <v>20</v>
@@ -10034,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10081,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10128,7 +10128,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10178,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R171">
         <v>14</v>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10275,7 +10275,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R173">
         <v>9</v>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R175">
         <v>13</v>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10475,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R177">
         <v>19</v>
@@ -10528,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10578,7 +10578,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R179">
         <v>16</v>
@@ -10631,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10772,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10869,7 +10869,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R185">
         <v>9</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10972,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R187">
         <v>14</v>
@@ -11025,7 +11025,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11075,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R189">
         <v>13</v>
@@ -11128,7 +11128,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R190">
         <v>11</v>
@@ -11181,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R191">
         <v>18</v>
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11281,7 +11281,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R193">
         <v>18</v>
@@ -11334,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11384,7 +11384,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R195">
         <v>3</v>
@@ -11434,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11478,7 +11478,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11528,7 +11528,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R198">
         <v>12</v>
@@ -11578,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11628,7 +11628,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R200">
         <v>15</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11728,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R202">
         <v>22</v>
@@ -11781,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R203">
         <v>22</v>
@@ -11834,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11884,7 +11884,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R205">
         <v>10</v>
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12025,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R209">
         <v>20</v>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R210">
         <v>28</v>
@@ -12181,7 +12181,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R211">
         <v>25</v>
@@ -12231,7 +12231,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12281,7 +12281,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R213">
         <v>21</v>
@@ -12331,7 +12331,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12384,7 +12384,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R215">
         <v>15</v>
@@ -12434,7 +12434,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12481,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12528,7 +12528,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12578,7 +12578,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R219">
         <v>14</v>
@@ -12631,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R220">
         <v>22</v>
@@ -12681,7 +12681,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R222">
         <v>18</v>
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12828,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12875,7 +12875,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12969,7 +12969,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13016,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13110,7 +13110,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13160,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R231">
         <v>7</v>
@@ -13204,10 +13204,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q232">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13395,7 +13395,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13630,7 +13630,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13724,7 +13724,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13771,7 +13771,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13812,10 +13812,10 @@
         <v>1</v>
       </c>
       <c r="P245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13862,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13909,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13956,7 +13956,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14006,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R249">
         <v>22</v>
@@ -14059,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R250">
         <v>10</v>
@@ -14109,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14159,7 +14159,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R252">
         <v>22</v>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14259,7 +14259,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R254">
         <v>21</v>
@@ -14312,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14362,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R256">
         <v>11</v>
@@ -14415,7 +14415,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14465,7 +14465,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R258">
         <v>12</v>
@@ -14518,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14568,7 +14568,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R260">
         <v>8</v>
@@ -14615,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14662,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14709,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14756,7 +14756,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14853,7 +14853,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R266">
         <v>28</v>
@@ -14903,7 +14903,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14953,7 +14953,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R268">
         <v>14</v>
@@ -15003,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15053,7 +15053,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R270">
         <v>13</v>
@@ -15103,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R272">
         <v>18</v>
@@ -15206,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15256,7 +15256,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R274">
         <v>7</v>
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15456,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R278">
         <v>19</v>
@@ -15506,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15600,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15694,7 +15694,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15744,7 +15744,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R284">
         <v>31</v>
@@ -15797,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15847,7 +15847,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R286">
         <v>16</v>
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15991,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16041,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R290">
         <v>21</v>
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R291">
         <v>7</v>
@@ -16144,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16191,7 +16191,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16241,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16291,7 +16291,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R295">
         <v>34</v>
@@ -16341,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16391,7 +16391,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R297">
         <v>3</v>
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16535,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16585,7 +16585,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16635,7 +16635,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R302">
         <v>13</v>
@@ -16682,7 +16682,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R304">
         <v>14</v>
@@ -16785,7 +16785,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16832,7 +16832,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16929,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16976,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17120,7 +17120,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R312">
         <v>18</v>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17217,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17267,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R315">
         <v>28</v>
@@ -17317,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17367,7 +17367,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R317">
         <v>10</v>
@@ -17420,7 +17420,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17470,7 +17470,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R319">
         <v>13</v>
@@ -17520,7 +17520,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17570,7 +17570,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R321">
         <v>6</v>
@@ -17620,7 +17620,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17670,7 +17670,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R323">
         <v>19</v>
@@ -17720,7 +17720,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17767,7 +17767,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17861,7 +17861,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17908,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17955,7 +17955,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18002,7 +18002,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18049,7 +18049,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18099,7 +18099,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R332">
         <v>32</v>
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18202,7 +18202,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R334">
         <v>5</v>
@@ -18252,7 +18252,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18302,7 +18302,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R336">
         <v>14</v>
@@ -18355,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18405,7 +18405,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R338">
         <v>13</v>
@@ -18458,7 +18458,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18505,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18552,7 +18552,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18599,7 +18599,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18649,7 +18649,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R343">
         <v>9</v>
@@ -18702,7 +18702,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R344">
         <v>17</v>
@@ -18752,7 +18752,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18802,7 +18802,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R346">
         <v>24</v>
@@ -18855,7 +18855,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18905,7 +18905,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R348">
         <v>15</v>
@@ -18955,7 +18955,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19005,7 +19005,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R350">
         <v>14</v>
@@ -19055,7 +19055,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19105,7 +19105,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R352">
         <v>12</v>
@@ -19158,7 +19158,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19208,7 +19208,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R354">
         <v>5</v>
@@ -19258,7 +19258,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19299,10 +19299,10 @@
         <v>1</v>
       </c>
       <c r="P356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q356">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19443,7 +19443,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19490,7 +19490,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19531,10 +19531,10 @@
         <v>1</v>
       </c>
       <c r="P361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q361">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19584,7 +19584,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R362">
         <v>9</v>
@@ -19637,7 +19637,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19731,7 +19731,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19778,7 +19778,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19825,7 +19825,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19872,7 +19872,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19919,7 +19919,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19969,7 +19969,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R370">
         <v>20</v>
@@ -20022,7 +20022,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R371">
         <v>23</v>
@@ -20072,7 +20072,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20119,7 +20119,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20169,7 +20169,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20219,7 +20219,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R375">
         <v>19</v>
@@ -20272,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20319,7 +20319,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20366,7 +20366,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20416,7 +20416,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R379">
         <v>22</v>
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20513,7 +20513,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20560,7 +20560,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20607,7 +20607,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20657,7 +20657,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R384">
         <v>18</v>
@@ -20710,7 +20710,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20760,7 +20760,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R386">
         <v>18</v>
@@ -20810,7 +20810,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20860,7 +20860,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R388">
         <v>12</v>
@@ -20910,7 +20910,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20960,7 +20960,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R390">
         <v>17</v>
@@ -21010,7 +21010,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21060,7 +21060,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R392">
         <v>13</v>
@@ -21110,7 +21110,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21157,7 +21157,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21204,7 +21204,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21254,7 +21254,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21304,7 +21304,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R397">
         <v>22</v>
@@ -21354,7 +21354,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21401,7 +21401,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21448,7 +21448,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21498,7 +21498,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R401">
         <v>0</v>
@@ -21551,7 +21551,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R402">
         <v>13</v>
@@ -21601,7 +21601,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21651,7 +21651,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R404">
         <v>18</v>
@@ -21704,7 +21704,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21754,7 +21754,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R406">
         <v>4</v>
@@ -21804,7 +21804,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21851,7 +21851,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21898,7 +21898,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21945,7 +21945,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21992,7 +21992,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22042,7 +22042,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R412">
         <v>0</v>
@@ -22092,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22142,7 +22142,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22192,7 +22192,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R415">
         <v>23</v>
@@ -22245,7 +22245,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R416">
         <v>17</v>
@@ -22298,7 +22298,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22345,7 +22345,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22439,7 +22439,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22486,7 +22486,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22536,7 +22536,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R422">
         <v>31</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22639,7 +22639,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R424">
         <v>13</v>
@@ -22689,7 +22689,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22739,7 +22739,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R426">
         <v>12</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22839,7 +22839,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R428">
         <v>19</v>
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22942,7 +22942,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R430">
         <v>19</v>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23042,7 +23042,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R432">
         <v>20</v>
@@ -23095,7 +23095,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23145,7 +23145,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R434">
         <v>4</v>
@@ -23195,7 +23195,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23242,7 +23242,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23383,7 +23383,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R440">
         <v>30</v>
@@ -23483,7 +23483,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23533,7 +23533,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R442">
         <v>17</v>
@@ -23583,7 +23583,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23633,7 +23633,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R444">
         <v>24</v>
@@ -23686,7 +23686,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23736,7 +23736,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R446">
         <v>19</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R448">
         <v>14</v>
@@ -23892,7 +23892,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R449">
         <v>18</v>
@@ -23942,7 +23942,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24033,7 +24033,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24083,7 +24083,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R453">
         <v>26</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24186,7 +24186,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R455">
         <v>24</v>
@@ -24239,7 +24239,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24286,7 +24286,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24380,7 +24380,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24430,7 +24430,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R460">
         <v>0</v>
@@ -24477,7 +24477,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24527,7 +24527,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R462">
         <v>0</v>
@@ -24580,7 +24580,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24627,7 +24627,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24674,7 +24674,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24721,7 +24721,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24771,7 +24771,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R467">
         <v>6</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24868,7 +24868,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24918,7 +24918,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R470">
         <v>9</v>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25012,7 +25012,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25059,7 +25059,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25106,7 +25106,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25153,7 +25153,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25200,7 +25200,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25250,7 +25250,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R477">
         <v>4</v>
@@ -25297,7 +25297,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25347,7 +25347,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R479">
         <v>8</v>
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25494,7 +25494,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25541,7 +25541,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25591,7 +25591,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R484">
         <v>0</v>
@@ -25641,7 +25641,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25782,7 +25782,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25829,7 +25829,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25923,7 +25923,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25973,7 +25973,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R492">
         <v>4</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26117,7 +26117,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26167,7 +26167,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R496">
         <v>1</v>
@@ -26217,7 +26217,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26264,7 +26264,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26311,7 +26311,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26358,7 +26358,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26408,7 +26408,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26455,7 +26455,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26502,7 +26502,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26549,7 +26549,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26599,7 +26599,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R505">
         <v>9</v>
@@ -26643,10 +26643,10 @@
         <v>1</v>
       </c>
       <c r="P506" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q506">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26687,7 +26687,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
